--- a/DATA/IsoData/WREFIsoData.xlsx
+++ b/DATA/IsoData/WREFIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">a9221226-95b4-4f41-a8b9-87fbb3e649ab</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">894af6e7-1988-4d34-8aee-515db7e09d16</t>
   </si>
   <si>
     <t xml:space="preserve">WREF.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175727Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7382208-0615-4275-a366-3e590a16d28b</t>
+    <t xml:space="preserve">20210112T160655Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ea47115-6fe7-4ab7-8949-fdcc0ee2c44a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20181107.1130</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000059778</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173505Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">882aee75-f9bb-4621-a8b1-d8e6fc5dc222</t>
+    <t xml:space="preserve">20210112T163402Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a85bf0e-ccae-4cb0-ba1b-a1f43968d225</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20181120.1030</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000059906</t>
   </si>
   <si>
-    <t xml:space="preserve">6048f03d-63af-4575-8a02-599b41ce5dcf</t>
+    <t xml:space="preserve">eb5f5120-1fda-4c27-93a2-28e416d72f0d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20181204.1158</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000059861</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173545Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8ff2dab-4523-43a4-a465-4c7df6bd29a2</t>
+    <t xml:space="preserve">20210112T155834Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a9ab6e2d-f2f6-49f2-a217-0d6964f2fe23</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20181219.0130</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000059868</t>
   </si>
   <si>
-    <t xml:space="preserve">9a3966dd-6187-4674-8706-c26da63c95fa</t>
+    <t xml:space="preserve">6bc9565e-72bb-4e4a-aff7-8a4c1896109c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190102.1230</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000059869</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170940Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4bdf5fc4-6ee6-4bdf-98db-5afdab3670ed</t>
+    <t xml:space="preserve">20210112T145847Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900e490-74ef-458c-b5fc-737929d4be67</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190115.1035</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000059872</t>
   </si>
   <si>
-    <t xml:space="preserve">697ec759-f3d3-4ea8-8f28-901e9dc453d5</t>
+    <t xml:space="preserve">ff50d7d2-ff1a-446b-9bd3-8f86e33c7d19</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190128.1215</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000059871</t>
   </si>
   <si>
-    <t xml:space="preserve">265fd488-6395-43ed-8951-d28a1db33502</t>
+    <t xml:space="preserve">af4e825d-432b-48bb-9f41-b45c6befbb8e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190412.1304</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000060074</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175942Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b018f2b2-c6c2-43e9-87a5-fbc89f25918c</t>
+    <t xml:space="preserve">20210112T164359Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6ff67af-992e-4fb8-91ed-948145a9f8c3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190422.1323</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000060880</t>
   </si>
   <si>
-    <t xml:space="preserve">9aa86e0f-b147-4e0b-aae4-abfc1dbbacd0</t>
+    <t xml:space="preserve">f633c16f-ca53-45b7-a49e-620ed768d63a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190508.1302</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000061093</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T180133Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">375f5289-8370-43aa-a657-35b2168a75ab</t>
+    <t xml:space="preserve">20210112T164734Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09550744-c1ff-44a8-9061-99cd86abdacd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190522.1322</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">A00000060705</t>
   </si>
   <si>
-    <t xml:space="preserve">0625e883-ce7b-45d7-af52-7fff3bcb116a</t>
+    <t xml:space="preserve">14dea4db-dcb9-42ee-9a04-74d2db43ff77</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190604.1153</t>
@@ -248,10 +254,10 @@
     <t xml:space="preserve">A00000060600</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175430Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12a695a4-6dae-441a-90de-85efc211ac5d</t>
+    <t xml:space="preserve">20210112T160358Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c4f3271-64e8-413a-9013-40887e2f8beb</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190617.1124</t>
@@ -263,7 +269,7 @@
     <t xml:space="preserve">A00000061149</t>
   </si>
   <si>
-    <t xml:space="preserve">07dc3727-9f89-47a7-a06c-ecfeecffdeb7</t>
+    <t xml:space="preserve">aaab5e69-5c58-4728-9d12-677c28753a0b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190703.1031</t>
@@ -275,10 +281,10 @@
     <t xml:space="preserve">A00000060654</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175528Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7cdbe56a-3c72-4b18-91c3-d385e72fd504</t>
+    <t xml:space="preserve">20210112T162943Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">768905d8-2be8-4dbf-8d1c-640b7d6afe6c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190722.1037</t>
@@ -290,7 +296,7 @@
     <t xml:space="preserve">A00000106261</t>
   </si>
   <si>
-    <t xml:space="preserve">ab79fe68-3d50-4651-99f6-e25eb87ed09b</t>
+    <t xml:space="preserve">b33f7464-41b7-4506-af6e-3f570b32149b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190814.1028</t>
@@ -302,10 +308,10 @@
     <t xml:space="preserve">A00000139391</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175658Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ed92210f-7159-4f74-93ab-8f75a9de8aa5</t>
+    <t xml:space="preserve">20210112T161646Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f640b7d1-1bbc-4612-a8fd-6fa96fff74d4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190828.1045</t>
@@ -317,7 +323,7 @@
     <t xml:space="preserve">A00000106235</t>
   </si>
   <si>
-    <t xml:space="preserve">8d2d1703-562a-4778-b2e9-b234807701cc</t>
+    <t xml:space="preserve">c56a35f3-c1c0-45f6-94a5-a5a8a0846af0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190910.1458</t>
@@ -329,10 +335,10 @@
     <t xml:space="preserve">A00000139419</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175743Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c269d5c1-e157-41f5-86d5-bc22841e55b2</t>
+    <t xml:space="preserve">20210112T161429Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9b311e3-127f-4b24-9011-e31e1c86ad1d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20190925.1021</t>
@@ -344,7 +350,7 @@
     <t xml:space="preserve">A00000139781</t>
   </si>
   <si>
-    <t xml:space="preserve">84a9526d-7559-4321-87e3-e5fb40d33ae1</t>
+    <t xml:space="preserve">e04c277d-134d-4ce3-97dc-311814e30034</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20191010.1522</t>
@@ -356,10 +362,10 @@
     <t xml:space="preserve">A00000140248</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173524Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bf0c20ef-1499-4c44-b653-406d518393f0</t>
+    <t xml:space="preserve">20210112T155913Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31190aaf-e2b0-4232-b5b6-be586ed2f55d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20191023.1232</t>
@@ -371,7 +377,7 @@
     <t xml:space="preserve">A00000140238</t>
   </si>
   <si>
-    <t xml:space="preserve">c04b3bc7-7fd3-4356-a88f-28e9945746cc</t>
+    <t xml:space="preserve">1b165163-f0ea-4331-9f22-1cb84e08fa83</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20191112.1423</t>
@@ -383,10 +389,10 @@
     <t xml:space="preserve">A00000106682</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173607Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc63b144-0d96-4478-9df0-24810c0ec37d</t>
+    <t xml:space="preserve">20210112T164246Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1d3e783-3c13-4916-ad47-cf9b94b1133a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20191121.1433</t>
@@ -398,7 +404,7 @@
     <t xml:space="preserve">A00000106995</t>
   </si>
   <si>
-    <t xml:space="preserve">32c06f18-f813-4bd2-9284-41c54fe392f6</t>
+    <t xml:space="preserve">868fece0-4ba5-4cc0-af64-802f0988d386</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20191203.1358</t>
@@ -410,10 +416,10 @@
     <t xml:space="preserve">A00000106764</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173652Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22954df4-31bb-46f6-aa15-2df742ede59f</t>
+    <t xml:space="preserve">20210112T164142Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b670a0dd-f5ef-4d96-ad6e-3a43d2300228</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20191216.1422</t>
@@ -425,7 +431,7 @@
     <t xml:space="preserve">A00000106801</t>
   </si>
   <si>
-    <t xml:space="preserve">e6963f47-ba31-4e2e-8797-ddd0cca05898</t>
+    <t xml:space="preserve">d49741db-41d0-4574-8902-d490eb9cc1c1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20191231.1039</t>
@@ -437,7 +443,64 @@
     <t xml:space="preserve">A00000106979</t>
   </si>
   <si>
-    <t xml:space="preserve">1c52a4a4-2661-45ac-9675-324d73eaa1ff</t>
+    <t xml:space="preserve">946c91eb-4641-4f76-9ae7-563231bec0af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200115.1139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200115.1139.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000106913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145912Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4fafc849-7239-4a6d-be4a-95cb77d6a8cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200128.1138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200128.1138.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000106990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec6edb0d-606f-42e1-b0ae-4306d3f5cf1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200210.1226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200210.1226.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000109391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T160623Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aca0aadd-7e6d-4fa8-83f3-cb98ed601fb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200226.1224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200226.1224.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000107134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c3e0020-5829-4ebc-9a84-1aa884e348c1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.WREF.20200309.1318</t>
@@ -449,7 +512,37 @@
     <t xml:space="preserve">A00000107095</t>
   </si>
   <si>
-    <t xml:space="preserve">20200706T134116Z</t>
+    <t xml:space="preserve">20210112T163432Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e1bd0f0-1491-42ca-b223-b5fab1ad9f19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200716.1428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200716.1428.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000107204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163222Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf7f9bad-5e0e-4d13-b91f-e4bf14046745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200825.1451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.WREF.20200825.1451.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000290190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T160516Z</t>
   </si>
 </sst>
 </file>
@@ -787,7 +880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -841,23 +934,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43371.7291666667</v>
@@ -878,35 +974,38 @@
         <v>0.17</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43397.8090277778</v>
@@ -927,35 +1026,38 @@
         <v>0.096</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43411.8125</v>
@@ -976,35 +1078,38 @@
         <v>0.275</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43521.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43424.7708333333</v>
@@ -1025,35 +1130,38 @@
         <v>0.115</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43521.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43438.8319444444</v>
@@ -1074,35 +1182,38 @@
         <v>0.082</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43521.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43453.8993055556</v>
@@ -1123,35 +1234,38 @@
         <v>0.135</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43521.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43468.8541666667</v>
@@ -1172,35 +1286,38 @@
         <v>0.198</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43551.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43480.7743055556</v>
@@ -1221,35 +1338,38 @@
         <v>0.114</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43551.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43550.7840277778</v>
@@ -1270,35 +1390,38 @@
         <v>0.123</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43567.8465277778</v>
@@ -1319,35 +1442,38 @@
         <v>0.117</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43577.8590277778</v>
@@ -1368,35 +1494,38 @@
         <v>0.399</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43593.8347222222</v>
@@ -1417,35 +1546,38 @@
         <v>0.312</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43607.8486111111</v>
@@ -1466,35 +1598,38 @@
         <v>0.209</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43620.8152777778</v>
@@ -1515,35 +1650,38 @@
         <v>0.396</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43633.7673611111</v>
@@ -1564,35 +1702,38 @@
         <v>0.221</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43649.7298611111</v>
@@ -1613,35 +1754,38 @@
         <v>0.059</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43677.7527777778</v>
@@ -1662,35 +1806,38 @@
         <v>0.121</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43691.7402777778</v>
@@ -1711,35 +1858,38 @@
         <v>0.205</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43705.7395833333</v>
@@ -1760,35 +1910,38 @@
         <v>0.213</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43718.9152777778</v>
@@ -1809,35 +1962,38 @@
         <v>0.06</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43733.7229166667</v>
@@ -1858,35 +2014,38 @@
         <v>0.112</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43748.9381944444</v>
@@ -1907,35 +2066,38 @@
         <v>0.159</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43761.8138888889</v>
@@ -1956,35 +2118,38 @@
         <v>0.262</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43781.9444444444</v>
@@ -2005,35 +2170,38 @@
         <v>0.159</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>43790.9513888889</v>
@@ -2054,35 +2222,38 @@
         <v>0.181</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>43802.9222222222</v>
@@ -2103,35 +2274,38 @@
         <v>0.202</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>43815.9319444444</v>
@@ -2152,66 +2326,384 @@
         <v>0.281</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>43859.7916666667</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>43887.8541666667</v>
+        <v>43830.7826388889</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>43899.8458333333</v>
+        <v>43845.81875</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.653</v>
+        <v>-9.154</v>
       </c>
       <c r="J29" t="n">
-        <v>-71.312</v>
+        <v>-64.227</v>
       </c>
       <c r="K29" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="L29" t="n">
-        <v>0.338</v>
+        <v>0.161</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>43985.75</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P29"/>
       <c r="Q29" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="R29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>43845.8263888889</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>43858.8180555556</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-9.516</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-64.936</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>147</v>
+      </c>
+      <c r="R30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>43858.8291666667</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>43871.8513888889</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-7.096</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-50.118</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>157</v>
+      </c>
+      <c r="R31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>43871.8611111111</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>43887.85</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-9.166</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-67.489</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>157</v>
+      </c>
+      <c r="R32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>43887.8541666667</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>43899.8458333333</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-9.653</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-71.312</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>166</v>
+      </c>
+      <c r="R33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>44013.81875</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>44028.8944444444</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-4.568</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-39.582</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>44134.75</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>171</v>
+      </c>
+      <c r="R34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>44054.8194444444</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>44068.9104166667</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-3.077</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-28.099</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>44134.75</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35" t="s">
+        <v>176</v>
+      </c>
+      <c r="R35" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
